--- a/SCBAA/2019/Region 11.xlsx
+++ b/SCBAA/2019/Region 11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7E66A6-9E91-40E7-9A0F-25BB785F760E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5762FC97-9812-4832-88B7-C520FAC0CB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="1500" windowWidth="13815" windowHeight="12495" activeTab="5" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" activeTab="4" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Digos" sheetId="10" r:id="rId1"/>
@@ -24,6 +24,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1637,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EECD59-C1E3-4A87-85F0-D27E48B54FFB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1796,7 +1803,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>126981076.72999999</v>
       </c>
     </row>
@@ -1850,7 +1856,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>346675178.85000002</v>
       </c>
     </row>
@@ -2041,7 +2046,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1219223105.8299999</v>
       </c>
     </row>
@@ -2598,7 +2602,6 @@
         <v>49</v>
       </c>
       <c r="E91" s="58">
-        <f>43486580+425958817.49</f>
         <v>469445397.49000001</v>
       </c>
     </row>
@@ -2610,7 +2613,6 @@
         <v>50</v>
       </c>
       <c r="E92" s="58">
-        <f>344050+3954536.5</f>
         <v>4298586.5</v>
       </c>
     </row>
@@ -2620,7 +2622,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>994960128.63999999</v>
       </c>
     </row>
@@ -2787,7 +2788,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="58">
-        <f>595395+19889431.56+18252301.37</f>
         <v>38737127.93</v>
       </c>
     </row>
@@ -2796,7 +2796,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>38837127.93</v>
       </c>
     </row>
@@ -2808,7 +2807,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>1033797256.5699999</v>
       </c>
     </row>
@@ -2830,8 +2828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E50FEDA-E51F-4ADA-8EBE-287218B179DA}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2989,7 +2987,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>4136141969.2400002</v>
       </c>
     </row>
@@ -3043,7 +3040,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>1181050255.7800002</v>
       </c>
     </row>
@@ -3234,7 +3230,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>12563876692.099998</v>
       </c>
     </row>
@@ -3625,7 +3620,6 @@
         <v>47</v>
       </c>
       <c r="E75" s="48">
-        <f>450585.76+20503799.85</f>
         <v>20954385.610000003</v>
       </c>
     </row>
@@ -3812,7 +3806,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>8381893540.2199984</v>
       </c>
     </row>
@@ -3987,7 +3980,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -3999,7 +3991,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>8381893540.2199984</v>
       </c>
     </row>
@@ -4021,8 +4012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3C7E2F-6921-492A-994A-2D9F2EE4CA90}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4147,7 +4138,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="62">
-        <f>43041299.13</f>
         <v>43041299.130000003</v>
       </c>
     </row>
@@ -4181,7 +4171,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>80018863.719999999</v>
       </c>
     </row>
@@ -4224,7 +4213,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="62">
-        <f>705480.91</f>
         <v>705480.91</v>
       </c>
     </row>
@@ -4236,7 +4224,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>65360924.649999991</v>
       </c>
     </row>
@@ -4427,7 +4414,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>797092135.38</v>
       </c>
     </row>
@@ -5004,7 +4990,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>760057412.87</v>
       </c>
     </row>
@@ -5171,7 +5156,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="62">
-        <f>14412135.33+7090220.36</f>
         <v>21502355.690000001</v>
       </c>
     </row>
@@ -5180,7 +5164,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>108090468.45999999</v>
       </c>
     </row>
@@ -5192,7 +5175,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>868147881.33000004</v>
       </c>
     </row>
@@ -6404,8 +6386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191BD2DF-E051-4277-93AB-C7AB36FD6A7D}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6552,7 +6534,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="56">
-        <f>4385551.87+221493.33</f>
         <v>4607045.2</v>
       </c>
     </row>
@@ -6564,7 +6545,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>85997123.100000009</v>
       </c>
     </row>
@@ -6618,7 +6598,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>40140525.229999997</v>
       </c>
     </row>
@@ -6809,7 +6788,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1131611683.3099999</v>
       </c>
     </row>
@@ -7355,7 +7333,6 @@
         <v>57</v>
       </c>
       <c r="E90" s="56">
-        <f>155300+21405691.24</f>
         <v>21560991.239999998</v>
       </c>
     </row>
@@ -7387,7 +7364,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>1035331864.7099999</v>
       </c>
     </row>
@@ -7562,7 +7538,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>19306390.07</v>
       </c>
     </row>
@@ -7574,7 +7549,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>1054638254.78</v>
       </c>
     </row>
@@ -7596,7 +7570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D533712B-5FD4-4158-B8CC-8666A2A98AB3}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
